--- a/Task List.xlsx
+++ b/Task List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="724">
   <si>
     <t xml:space="preserve">Index No</t>
   </si>
@@ -2624,6 +2624,45 @@
 http://www.schwartz.taskgrids.com/ -- ( 6 hours )  -- updates (https://docs.google.com/document/d/1QoIuS-O1s6CouiSKWxQJ8ITLPMe4aFU9x0OK4esnuXQ/edit)
 http://www.taskgrids.com/fourbynorth/discover-define/ ( 30 min ) -- ( sticky image in mobile view )</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+https://kerrybodine-new.taskgrids.biz/-- ( 7 hours ) -- updates -- email template
+http://www.schwartz.taskgrids.com/ -- ( 1 hours )  -- updates (https://docs.google.com/document/d/1QoIuS-O1s6CouiSKWxQJ8ITLPMe4aFU9x0OK4esnuXQ/edit)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://kerrybodine-new.taskgrids.biz/-- ( 5 hours ) -- updates -- email template
+http://www.schwartz.taskgrids.com/ -- ( 3 hours )  -- updates (https://docs.google.com/document/d/1QoIuS-O1s6CouiSKWxQJ8ITLPMe4aFU9x0OK4esnuXQ/edit)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://kerrybodine-new.taskgrids.biz/-- ( 8 hours ) -- updates -- email template , Text Changes, My Account Changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://kerrybodine-new.taskgrids.biz/-- ( 8 hours ) -- updates -- email template , Text Changes, My Account Changes , Cart Coupon Message Changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://kerrybodine-new.taskgrids.biz/-- ( 8 hours ) -- updates -- email template , Text Changes, My Account Changes , Cart Coupon Message Changes , Membership Issue
+http://www.taskgrids.com/fourbynorth/discover-define/ ( 30 min ) -- updates in mobile view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://kerrybodine-new.taskgrids.biz/-- ( 8 hours ) -- updates -- email template , Text Changes, My Account Changes , Cart Coupon Message Changes , Membership Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://kerrybodine-new.taskgrids.biz/-- ( 8 hours ) -- updates -- email template , Text Changes, My Account Changes , Cart Coupon Message Changes , Membership Issue , Site Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://kerrybodine-new.taskgrids.biz/-- ( 8 hours ) -- updates -- email template , Text Changes, My Account Changes , Cart Coupon Message Changes , Membership Issue
+https://inclusiveadvisor.com/cash-promotion -- ( 15 min ) --  Create 2 PDF Viewer Pages
+https://inclusiveadvisor.com/zh-hans/cash-promotion/</t>
+  </si>
 </sst>
 </file>
 
@@ -2637,7 +2676,7 @@
     <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2690,6 +2729,12 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2736,7 +2781,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2797,6 +2842,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2815,10 +2864,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K783"/>
+  <dimension ref="A1:K799"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A774" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D785" activeCellId="0" sqref="D785"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A789" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D801" activeCellId="0" sqref="D801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7770,7 +7819,7 @@
       </c>
     </row>
     <row r="775" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B775" s="14" t="n">
+      <c r="B775" s="12" t="n">
         <v>43792</v>
       </c>
       <c r="E775" s="7" t="s">
@@ -7778,7 +7827,7 @@
       </c>
     </row>
     <row r="777" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B777" s="14" t="n">
+      <c r="B777" s="12" t="n">
         <v>43794</v>
       </c>
       <c r="E777" s="7" t="s">
@@ -7786,7 +7835,7 @@
       </c>
     </row>
     <row r="779" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B779" s="14" t="n">
+      <c r="B779" s="12" t="n">
         <v>43795</v>
       </c>
       <c r="E779" s="7" t="s">
@@ -7794,16 +7843,80 @@
       </c>
     </row>
     <row r="781" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B781" s="14" t="n">
+      <c r="B781" s="12" t="n">
         <v>43796</v>
       </c>
       <c r="E781" s="7" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B783" s="14" t="n">
+    <row r="783" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B783" s="12" t="n">
         <v>43797</v>
+      </c>
+      <c r="E783" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B785" s="12" t="n">
+        <v>43798</v>
+      </c>
+      <c r="E785" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B787" s="14" t="n">
+        <v>43771</v>
+      </c>
+      <c r="E787" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B789" s="14" t="n">
+        <v>43468</v>
+      </c>
+      <c r="E789" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B791" s="14" t="n">
+        <v>43773</v>
+      </c>
+      <c r="E791" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B793" s="14" t="n">
+        <v>43774</v>
+      </c>
+      <c r="E793" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B795" s="14" t="n">
+        <v>43775</v>
+      </c>
+      <c r="E795" s="15" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B797" s="14" t="n">
+        <v>43778</v>
+      </c>
+      <c r="E797" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B799" s="14" t="n">
+        <v>43779</v>
       </c>
     </row>
   </sheetData>
@@ -8127,6 +8240,7 @@
     <hyperlink ref="E719" r:id="rId314" display="http://192.168.10.52:3000/kennedy/new-resources/&#10;http://192.168.10.52:3000/kennedy/new-resources/article-events/&#10;http://192.168.10.52:3000/kennedy/strengthen-your-leadership-skills-with-an-executive-speech-coach-3/&#10;https://lehvoss-bev.ch/ -- ( 20 min ) -- update&#10;http://phillyapartmentco.com/wp-admin -- ( 1 hour ) -- live updates"/>
     <hyperlink ref="E755" r:id="rId315" location="properties" display="&#10;http://192.168.10.52/realestate/wp-admin/ -- ( 1 hours ) -- search issue&#10;https://realestate-blueridge.mystagingwebsite.com/ -- ( 5 hour ) -- add idx broker plugin and add search n listing functionality , solve js issue + serach isssue&#10;https://middleware.idxbroker.com/mgmt/preferences#properties"/>
     <hyperlink ref="E759" r:id="rId316" display="&#10;https://www.hotelliherkko.fi/ -- ( 1 hours ) -- add booking form method post + live updates + design -- https://192.168.10.52/hotelliherkko-local/en/"/>
+    <hyperlink ref="E797" r:id="rId317" display="https://inclusiveadvisor.com/zh-hans/cash-promotion/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
